--- a/Input/test.xlsx
+++ b/Input/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nip-administrator/My_project/Spider/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spider\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABDDF3D-52DE-5F45-AC92-B9EB09414755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D50FD3-A3D0-466F-9050-E5ECA05C4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="0" windowWidth="21600" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2556" yWindow="2712" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>手机</t>
   </si>
@@ -35,27 +35,120 @@
   </si>
   <si>
     <t>test0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI对话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人回答</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,6 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -134,29 +235,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,21 +598,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="70.33203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12" customHeight="1">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -515,8 +622,20 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -526,40 +645,76 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="15">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
@@ -585,6 +740,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>